--- a/biology/Botanique/Faramea_corymbosa/Faramea_corymbosa.xlsx
+++ b/biology/Botanique/Faramea_corymbosa/Faramea_corymbosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Faramea corymbosa est une espèce néotropicale d'arbuste, appartenant à la famille des Rubiaceae. Il s'agit de l'espèce type du genre Faramea Aubl.[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Faramea corymbosa est une espèce néotropicale d'arbuste, appartenant à la famille des Rubiaceae. Il s'agit de l'espèce type du genre Faramea Aubl..
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En 1953, Lemée en propose la description suivante de Faramea corymbosa :
 « Jeunes rameaux 4-gônes, ; feuilles subsessiles, de 0,09-0,10 sur 0,03-0,04, oblongues longuement caudées, à base aiguë, subcoriaces, avec environ 10 paires de nervures, gaine stipulaire très courte ; inflorescences terminales, en général par groupes de 3, pédonculées, ombelliformes, en général de 6-8 fleurs sur un seul plan et avec 2 bractées fugaces à la base à fleurs pédicellées, calice largement campanulé, denticulé, corolle à tube de 7-8 mm. et lobes de 5 anthères dépassant un peu la gorge de la corolle, style de 6 mm., glabre. - (Aublet). »
-— Albert Lemée, 1953.[4]</t>
+— Albert Lemée, 1953.</t>
         </is>
       </c>
     </row>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Faramea corymbosa est présente dans l'ensemble du bassin amazonien.
 </t>
@@ -574,9 +590,11 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fruits de Faramea corymbosa seraient comestibles[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits de Faramea corymbosa seraient comestibles.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[6] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « 1. FARAMEA (corymboſa) foliis ovatis, acutis ; pedunculis ternatis, corymboſis..
 Frutex ſeptem aut octo pedalis. Trunco ramoſo, nodoſo; ramis ſparſis, oppoſitis. Folia ovata, glabra, acuta, integerrima, ſubſeſſilia. Stipule binæ, acutæ, oppoſitæ, una ab utroque latere, intrà baſim petiolorum. Flores in très corymbos pedunculatos, terminates; corymbi compreſſi quail flabelli, ferentes decem aut quindecim flores. Corolla alba.
 Florebat Januario.
